--- a/workshop_materials/2021-09-21-introduction_to_linux/for_instructors/carpentry_breakup_into_sessions.xlsx
+++ b/workshop_materials/2021-09-21-introduction_to_linux/for_instructors/carpentry_breakup_into_sessions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nih-my.sharepoint.com/personal/weismanal_nih_gov/Documents/projects/linux_course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="88" documentId="8_{2D584415-9EDF-410B-BCCA-B9EF32025981}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{7F29B14D-157C-43E8-9D31-85025C7589CE}"/>
+  <xr:revisionPtr revIDLastSave="206" documentId="8_{2D584415-9EDF-410B-BCCA-B9EF32025981}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{BE273912-BDAA-48D5-A166-70E68C1B3E3C}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{6288A19A-B9EA-4C0C-8AD5-F34ED58A9547}"/>
+    <workbookView xWindow="340" yWindow="340" windowWidth="17200" windowHeight="9960" activeTab="1" xr2:uid="{6288A19A-B9EA-4C0C-8AD5-F34ED58A9547}"/>
   </bookViews>
   <sheets>
     <sheet name="proposed_instructor_breakdown" sheetId="1" r:id="rId1"/>
@@ -525,7 +525,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D77BE48-6FAE-43B9-82A1-C2D69E2263A7}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -613,7 +615,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19DE56A4-9BB5-4AC5-8B23-FE1238C8D82D}">
   <dimension ref="A1:K67"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
